--- a/documentation/Data fields-updated.xlsx
+++ b/documentation/Data fields-updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Webapp\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1623188-7818-43CA-AD0B-F66433B91376}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCA250F-5521-499D-9D13-AF7FFA7497CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0A9A9FD0-A7A5-44CE-9E0D-B6C97CFCBC4B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="152">
   <si>
     <t>Database field name</t>
   </si>
@@ -157,15 +157,9 @@
     <t>Location</t>
   </si>
   <si>
-    <t>address_1</t>
-  </si>
-  <si>
     <t>Address line 1</t>
   </si>
   <si>
-    <t>address_2</t>
-  </si>
-  <si>
     <t>Address line 2</t>
   </si>
   <si>
@@ -289,12 +283,6 @@
     <t>Website of the co-sponsor</t>
   </si>
   <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
     <t>anticipated_cost</t>
   </si>
   <si>
@@ -374,9 +362,6 @@
   </si>
   <si>
     <t>Repeat every week or not?</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
   <si>
     <t>its BFILE.  I will contact it to make sure</t>
@@ -539,9 +524,6 @@
     <t>no [optional]</t>
   </si>
   <si>
-    <t xml:space="preserve">Building and Room </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sponsoring department </t>
   </si>
   <si>
@@ -594,6 +576,42 @@
   </si>
   <si>
     <t>Think about geocoding address so that location is presented on a map.</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>updated_date</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>event_date</t>
+  </si>
+  <si>
+    <t>event_start_time</t>
+  </si>
+  <si>
+    <t>event_end_time</t>
+  </si>
+  <si>
+    <t>event_file</t>
+  </si>
+  <si>
+    <t>address_line1</t>
+  </si>
+  <si>
+    <t>building_room</t>
+  </si>
+  <si>
+    <t>address_line2</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>list</t>
   </si>
 </sst>
 </file>
@@ -973,12 +991,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B7D3B1-5CBF-4DB4-A4B5-8C4399A6B0B3}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1061,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1087,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1110,7 +1128,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1"/>
     </row>
@@ -1119,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1128,7 +1146,7 @@
         <v>500</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -1137,27 +1155,27 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -1168,132 +1186,132 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1312,7 +1330,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>29</v>
@@ -1338,7 +1356,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>33</v>
@@ -1364,7 +1382,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>36</v>
@@ -1390,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>39</v>
@@ -1405,7 +1423,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>10</v>
@@ -1429,25 +1447,27 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
@@ -1456,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>21</v>
@@ -1467,13 +1487,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1482,7 +1502,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
@@ -1493,65 +1513,65 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="F23" s="3">
         <v>200</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" t="s">
-        <v>27</v>
+      <c r="G24" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3">
         <v>200</v>
@@ -1560,59 +1580,76 @@
         <v>27</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F26" s="3">
-        <v>10</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>59</v>
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>75</v>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="3">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>10</v>
+      <c r="A28" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>10</v>
@@ -1621,59 +1658,42 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31">
-        <v>200</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>200</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>10</v>
@@ -1681,22 +1701,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F33">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>10</v>
@@ -1707,214 +1727,214 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="I35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F34">
-        <v>200</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36">
-        <v>20</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F37">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" t="s">
-        <v>98</v>
+        <v>10</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F39">
         <v>20</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>101</v>
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>77</v>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41">
-        <v>200</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" t="s">
-        <v>10</v>
+      <c r="B41" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F42">
         <v>200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>10</v>
@@ -1925,39 +1945,87 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J47" s="6" t="s">
-        <v>145</v>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1980,25 +2048,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Data fields-updated.xlsx
+++ b/documentation/Data fields-updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Webapp\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCA250F-5521-499D-9D13-AF7FFA7497CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16536B9-458E-482D-BA6E-1A3C2DDA4AA1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0A9A9FD0-A7A5-44CE-9E0D-B6C97CFCBC4B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
   <si>
     <t>Database field name</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Sponsor organization</t>
   </si>
   <si>
-    <t>complete data not available. I will use the data that is available for now</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
   </si>
   <si>
     <t>Anticipated overall cost of Event</t>
-  </si>
-  <si>
-    <t>funding_sources</t>
   </si>
   <si>
     <t>Sources of Funding</t>
@@ -612,6 +606,24 @@
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>user types in info</t>
+  </si>
+  <si>
+    <t>funding_source1</t>
+  </si>
+  <si>
+    <t>funding_source2</t>
+  </si>
+  <si>
+    <t>funding_other</t>
+  </si>
+  <si>
+    <t>event_cost</t>
+  </si>
+  <si>
+    <t>attendees_count</t>
   </si>
 </sst>
 </file>
@@ -643,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +665,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,14 +687,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,12 +1011,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B7D3B1-5CBF-4DB4-A4B5-8C4399A6B0B3}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,312 +1034,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>500</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="2">
+        <v>200</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="H13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
         <v>10</v>
@@ -1327,25 +1385,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1353,25 +1411,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>10</v>
@@ -1379,22 +1437,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>10</v>
@@ -1405,25 +1463,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F18" s="3">
         <v>200</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>134</v>
+      <c r="I18" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>10</v>
@@ -1431,7 +1489,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1446,8 +1504,8 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="5" t="s">
-        <v>148</v>
+      <c r="C20" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1461,13 +1519,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
@@ -1476,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
@@ -1487,13 +1545,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1502,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
@@ -1513,25 +1571,25 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F23" s="3">
         <v>200</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>10</v>
@@ -1539,103 +1597,103 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F25" s="3">
         <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="3">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="3">
-        <v>10</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="I27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>10</v>
@@ -1643,13 +1701,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>10</v>
@@ -1658,7 +1716,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>10</v>
@@ -1667,33 +1725,39 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="F31">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
         <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" t="s">
-        <v>60</v>
       </c>
       <c r="F32">
         <v>200</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>10</v>
@@ -1701,22 +1765,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
         <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" t="s">
-        <v>63</v>
       </c>
       <c r="F33">
         <v>200</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>10</v>
@@ -1727,22 +1791,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34">
         <v>15</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>10</v>
@@ -1753,13 +1817,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
         <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" t="s">
-        <v>70</v>
       </c>
       <c r="F35">
         <v>200</v>
@@ -1768,264 +1832,310 @@
         <v>10</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    </row>
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" s="2">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="2">
+        <v>200</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37">
+      <c r="E41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="2">
         <v>20</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38">
-        <v>200</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="G41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="I41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F39">
+      <c r="F42" s="2">
         <v>20</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="G42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="I42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F40">
-        <v>20</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42">
-        <v>200</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" t="s">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="J42" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43">
-        <v>200</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
+      <c r="B43" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F44">
-        <v>15</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F45">
         <v>200</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46">
+        <v>15</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D48" t="s">
-        <v>100</v>
-      </c>
-      <c r="J48" s="6" t="s">
+      <c r="D49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" t="s">
-        <v>100</v>
+      <c r="D51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C468B8-0B67-4B23-8330-7D7FCF531265}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2048,28 +2160,29 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>